--- a/Comparison_Matrices/function_suitability.xlsx
+++ b/Comparison_Matrices/function_suitability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guribhangu/development/research/qatch/Comparison_Matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCA988-2F62-9545-8634-82B11F74C961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCB998-5F44-694F-A7D5-4CA48733B07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{BC96D46B-7F07-E14F-9FD8-A10A23FFA57C}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
